--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1093.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1093.xlsx
@@ -354,7 +354,7 @@
         <v>2.348031994687933</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.73876801865872</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1093.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1093.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.212732863783373</v>
+        <v>1.177257299423218</v>
       </c>
       <c r="B1">
-        <v>2.348031994687933</v>
+        <v>2.414568662643433</v>
       </c>
       <c r="C1">
         <v>15</v>
       </c>
       <c r="D1">
-        <v>1.73876801865872</v>
+        <v>2.33542537689209</v>
       </c>
       <c r="E1">
-        <v>1.135651342328938</v>
+        <v>1.20007848739624</v>
       </c>
     </row>
   </sheetData>
